--- a/data/trans_dic/P44-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P44-Habitat-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03263917684996918</v>
+        <v>0.03421792699389391</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.0774786639139679</v>
+        <v>0.07599010244179236</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2645673875105675</v>
+        <v>0.2613371589607605</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.03239150062757894</v>
+        <v>0.03023641968898166</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.05717151291661263</v>
+        <v>0.05545695273750113</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2506035892824099</v>
+        <v>0.2514740980351406</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.03712740384687929</v>
+        <v>0.0375785229747738</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.07392302482569391</v>
+        <v>0.07431205631817958</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2680475138959806</v>
+        <v>0.2686317199748183</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0904326337669429</v>
+        <v>0.09298971311819929</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1525975482144106</v>
+        <v>0.1561458752335563</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3611975430308887</v>
+        <v>0.3602215047687521</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.08343085382779993</v>
+        <v>0.08194615297875249</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1227120411478695</v>
+        <v>0.1245625102394573</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3141011182663068</v>
+        <v>0.3150728847930173</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.07752584668561652</v>
+        <v>0.07640018465739466</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.124008823382343</v>
+        <v>0.1275286044842564</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3247967660274895</v>
+        <v>0.3220904040065838</v>
       </c>
     </row>
     <row r="7">
@@ -755,7 +755,7 @@
         <v>0.09929912399831974</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.3571602960100791</v>
+        <v>0.357160296010079</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.09447023204801487</v>
@@ -773,7 +773,7 @@
         <v>0.08578962724692948</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.3257494942853864</v>
+        <v>0.3257494942853865</v>
       </c>
     </row>
     <row r="8">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.05509167005840828</v>
+        <v>0.05714409898091238</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.07288301065395497</v>
+        <v>0.07104352646296397</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3140067206143096</v>
+        <v>0.3147420744752056</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.0679185706302651</v>
+        <v>0.06845142991125826</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.05251315376924669</v>
+        <v>0.05088408611458214</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2653501596327422</v>
+        <v>0.2663176920820976</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.07018754677753662</v>
+        <v>0.07083665377686717</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.06833760698489068</v>
+        <v>0.06677487742936804</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2980704103630352</v>
+        <v>0.3000161412300476</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1226966252265436</v>
+        <v>0.1251976954435961</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1318722130994771</v>
+        <v>0.1291515660680485</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4034218254367138</v>
+        <v>0.40011847304336</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.130203160851803</v>
+        <v>0.1330300077797994</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1090146927696314</v>
+        <v>0.1096886196421328</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3289813960059286</v>
+        <v>0.3292725200466231</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1152293284608437</v>
+        <v>0.1173853019674327</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.105655754036097</v>
+        <v>0.1063569687471814</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3521269146920724</v>
+        <v>0.3508866249358999</v>
       </c>
     </row>
     <row r="10">
@@ -882,7 +882,7 @@
         <v>0.09121159796617631</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.2904683222713429</v>
+        <v>0.2904683222713428</v>
       </c>
     </row>
     <row r="11">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.07875577754861231</v>
+        <v>0.07733576915884678</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.08072840152842152</v>
+        <v>0.08077869993904042</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2807606470911694</v>
+        <v>0.2781523769334646</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.0563984260576287</v>
+        <v>0.06082849301056179</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04168413307988881</v>
+        <v>0.04125409157092121</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2193818683619439</v>
+        <v>0.2139010064702173</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.07430334640147816</v>
+        <v>0.07544176584418108</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.07041668137422392</v>
+        <v>0.06871843692673725</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2591434593867901</v>
+        <v>0.261468432025965</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1681467856437018</v>
+        <v>0.1698328787143846</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1588576493596663</v>
+        <v>0.1585871568088822</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3749374646002829</v>
+        <v>0.374660407858681</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1279257923312129</v>
+        <v>0.1326884177080016</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1013292042219924</v>
+        <v>0.1033770404824814</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.290935638822979</v>
+        <v>0.2891658194341449</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1334046822191601</v>
+        <v>0.1316340310273335</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1183306228220634</v>
+        <v>0.1209155394333817</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3196837925744079</v>
+        <v>0.3216202343369858</v>
       </c>
     </row>
     <row r="13">
@@ -973,7 +973,7 @@
         <v>0.1439178063808482</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.4283719644696192</v>
+        <v>0.4283719644696193</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0.06175200819246399</v>
@@ -982,7 +982,7 @@
         <v>0.07206624036232546</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.3511125279638286</v>
+        <v>0.3511125279638287</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>0.08592507523004557</v>
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.08571119500163539</v>
+        <v>0.08205014095952838</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1122742694604901</v>
+        <v>0.1129293281838371</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3877849501434826</v>
+        <v>0.389973472238536</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04179966331102528</v>
+        <v>0.04082508812383308</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.05039101281682147</v>
+        <v>0.05103330761822092</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3203089236875361</v>
+        <v>0.318797458290826</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.0671395181087318</v>
+        <v>0.06578826377044218</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.08304380993186627</v>
+        <v>0.08404859480322781</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3611380969954436</v>
+        <v>0.3616331992915243</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1636098625984165</v>
+        <v>0.1591799638516947</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1794933130260712</v>
+        <v>0.1831666288399663</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4681540261052922</v>
+        <v>0.4673183618175032</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.08766843932587895</v>
+        <v>0.08686602670365143</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.09907697075713133</v>
+        <v>0.1031228652064614</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3834974581836684</v>
+        <v>0.382262790337277</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1078929798937123</v>
+        <v>0.1067921803135589</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1272614518614328</v>
+        <v>0.1263090848958289</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.4118056253792206</v>
+        <v>0.4104502396626957</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.07657237801550149</v>
+        <v>0.07847691551996094</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1021887436950379</v>
+        <v>0.1011323362788182</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3400116420467126</v>
+        <v>0.3400366221814116</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.06128007987945324</v>
+        <v>0.06107576446360016</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.06035873117363024</v>
+        <v>0.06195570227470121</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2866450142394491</v>
+        <v>0.2866508430085106</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.07314892411682634</v>
+        <v>0.07347567468646375</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.08429354105189769</v>
+        <v>0.08453321314773669</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3172737264085895</v>
+        <v>0.3174150669117179</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1127179516349354</v>
+        <v>0.115472612613822</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1357601099904893</v>
+        <v>0.1359336836774408</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3846923059837695</v>
+        <v>0.3832675934239288</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.09104119094736039</v>
+        <v>0.09092387653659173</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.08894612539775527</v>
+        <v>0.0891214802093461</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3204276778498423</v>
+        <v>0.3185619539871126</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.09555706054319056</v>
+        <v>0.09573680453268132</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1076014436264689</v>
+        <v>0.1064468507647087</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3442201189820771</v>
+        <v>0.343926444099361</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>8717</v>
+        <v>9139</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>22588</v>
+        <v>22154</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>87305</v>
+        <v>86239</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>9708</v>
+        <v>9062</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>18461</v>
+        <v>17907</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>94583</v>
+        <v>94912</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>21043</v>
+        <v>21298</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>45421</v>
+        <v>45660</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>189621</v>
+        <v>190034</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>24152</v>
+        <v>24835</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>44488</v>
+        <v>45523</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>119192</v>
+        <v>118870</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>25004</v>
+        <v>24559</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>39623</v>
+        <v>40221</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>118549</v>
+        <v>118915</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>43940</v>
+        <v>43302</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>76196</v>
+        <v>78358</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>229766</v>
+        <v>227851</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>18271</v>
+        <v>18951</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>29579</v>
+        <v>28832</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>135367</v>
+        <v>135684</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>26878</v>
+        <v>27089</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>24593</v>
+        <v>23830</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>125343</v>
+        <v>125800</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>51053</v>
+        <v>51526</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>59738</v>
+        <v>58372</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>269296</v>
+        <v>271054</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>40691</v>
+        <v>41521</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>53519</v>
+        <v>52415</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>173914</v>
+        <v>172489</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>51527</v>
+        <v>52646</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>51054</v>
+        <v>51370</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>155401</v>
+        <v>155538</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>83816</v>
+        <v>85384</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>92361</v>
+        <v>92974</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>318134</v>
+        <v>317014</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>19303</v>
+        <v>18955</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>22919</v>
+        <v>22933</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>102631</v>
+        <v>101678</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>17091</v>
+        <v>18433</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>12376</v>
+        <v>12248</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>74024</v>
+        <v>72174</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>40728</v>
+        <v>41352</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>40898</v>
+        <v>39912</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>182169</v>
+        <v>183804</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>41213</v>
+        <v>41626</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>45100</v>
+        <v>45023</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>137057</v>
+        <v>136956</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>38766</v>
+        <v>40209</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>30085</v>
+        <v>30693</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>98168</v>
+        <v>97570</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>73124</v>
+        <v>72153</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>68727</v>
+        <v>70228</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>224727</v>
+        <v>226088</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>30019</v>
+        <v>28736</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>46958</v>
+        <v>47232</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>181227</v>
+        <v>182250</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>19604</v>
+        <v>19147</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>25583</v>
+        <v>25909</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>180743</v>
+        <v>179890</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>55003</v>
+        <v>53896</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>76892</v>
+        <v>77823</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>372557</v>
+        <v>373067</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>57301</v>
+        <v>55750</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>75071</v>
+        <v>76608</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>218787</v>
+        <v>218396</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>41117</v>
+        <v>40741</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>50300</v>
+        <v>52354</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>216399</v>
+        <v>215702</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>88390</v>
+        <v>87488</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>117834</v>
+        <v>116952</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>424826</v>
+        <v>423428</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>91431</v>
+        <v>93705</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>143016</v>
+        <v>141537</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>541970</v>
+        <v>542010</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>89927</v>
+        <v>89627</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>96321</v>
+        <v>98869</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>502056</v>
+        <v>502066</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>194688</v>
+        <v>195558</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>252487</v>
+        <v>253205</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1061428</v>
+        <v>1061900</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>134591</v>
+        <v>137880</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>190000</v>
+        <v>190243</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>613190</v>
+        <v>610919</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>133601</v>
+        <v>133429</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>141941</v>
+        <v>142221</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>561226</v>
+        <v>557958</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>254328</v>
+        <v>254806</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>322302</v>
+        <v>318844</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1151576</v>
+        <v>1150593</v>
       </c>
     </row>
     <row r="24">
